--- a/data/hestia/material.xlsx
+++ b/data/hestia/material.xlsx
@@ -1501,7 +1501,11 @@
         </is>
       </c>
       <c r="L7" s="33" t="n"/>
-      <c r="M7" s="33" t="n"/>
+      <c r="M7" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/53c35893-3698-4819-8994-b5484cf379b3</t>
+        </is>
+      </c>
       <c r="N7" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -1616,7 +1620,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M8" s="33" t="n"/>
+      <c r="M8" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/53c35893-3698-4819-8994-b5484cf379b3</t>
+        </is>
+      </c>
       <c r="N8" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -1854,7 +1862,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M10" s="33" t="n"/>
+      <c r="M10" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/e9066206-5489-4a49-8192-927722af79ad</t>
+        </is>
+      </c>
       <c r="N10" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -1961,7 +1973,11 @@
       </c>
       <c r="K11" s="33" t="n"/>
       <c r="L11" s="33" t="n"/>
-      <c r="M11" s="33" t="n"/>
+      <c r="M11" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/8ef02d68-0b80-4c12-81ee-3dd678d2915b</t>
+        </is>
+      </c>
       <c r="N11" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -2076,7 +2092,11 @@
           <t>1440</t>
         </is>
       </c>
-      <c r="M12" s="33" t="n"/>
+      <c r="M12" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/ec23da1b-e5fa-4f01-bd2c-3233fece2175</t>
+        </is>
+      </c>
       <c r="N12" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -2310,7 +2330,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M14" s="33" t="n"/>
+      <c r="M14" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/47e8f15f-6a0b-4ec5-be7d-8965ce014081</t>
+        </is>
+      </c>
       <c r="N14" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -2425,7 +2449,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M15" s="33" t="n"/>
+      <c r="M15" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/37eceabd-b33f-4757-a4b9-5c51dee1710d</t>
+        </is>
+      </c>
       <c r="N15" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -2540,7 +2568,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M16" s="33" t="n"/>
+      <c r="M16" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/0930efae-d130-40c6-95bf-8e4966913dc8</t>
+        </is>
+      </c>
       <c r="N16" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -2655,7 +2687,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M17" s="33" t="n"/>
+      <c r="M17" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/0798a5d1-6713-4c82-8ec9-c40ac2548279</t>
+        </is>
+      </c>
       <c r="N17" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -2888,7 +2924,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M19" s="33" t="n"/>
+      <c r="M19" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/102d2161-b570-42cd-b646-1c44e47d23c5</t>
+        </is>
+      </c>
       <c r="N19" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -3003,7 +3043,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M20" s="33" t="n"/>
+      <c r="M20" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/b685192a-e033-421e-9074-8fe7cb176046</t>
+        </is>
+      </c>
       <c r="N20" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -3364,7 +3408,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M23" s="33" t="n"/>
+      <c r="M23" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/b167bcef-715e-4136-a743-2fae79a086d3</t>
+        </is>
+      </c>
       <c r="N23" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -3602,7 +3650,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M25" s="33" t="n"/>
+      <c r="M25" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/ac346633-b838-5e28-b494-0581f963e68d</t>
+        </is>
+      </c>
       <c r="N25" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -3832,7 +3884,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M27" s="33" t="n"/>
+      <c r="M27" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/4bf60736-bc87-4e3d-8d34-ea8bcc46f551</t>
+        </is>
+      </c>
       <c r="N27" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -4070,7 +4126,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M29" s="33" t="n"/>
+      <c r="M29" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/d585421f-a3a1-45bc-bd94-188f65865b9c</t>
+        </is>
+      </c>
       <c r="N29" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -4185,7 +4245,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M30" s="33" t="n"/>
+      <c r="M30" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/2c48066b-6b23-43cc-950f-ec6e89d4d838</t>
+        </is>
+      </c>
       <c r="N30" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -4546,7 +4610,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M33" s="33" t="n"/>
+      <c r="M33" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/ff002d3b-b2e9-45f0-b34e-0130ffbbcf3c</t>
+        </is>
+      </c>
       <c r="N33" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -4907,7 +4975,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M36" s="33" t="n"/>
+      <c r="M36" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/9e0e1511-492a-4ea4-a88a-50564b29805b</t>
+        </is>
+      </c>
       <c r="N36" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -5022,7 +5094,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M37" s="33" t="n"/>
+      <c r="M37" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/c33b5236-001e-49b5-aa3d-810c0214f9ce</t>
+        </is>
+      </c>
       <c r="N37" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -5383,7 +5459,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M40" s="39" t="n"/>
+      <c r="M40" s="39" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/0da5307e-df93-4bc2-b5bc-6cda3cb55e8c</t>
+        </is>
+      </c>
       <c r="N40" s="37" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -5494,7 +5574,11 @@
         </is>
       </c>
       <c r="L41" s="33" t="n"/>
-      <c r="M41" s="33" t="n"/>
+      <c r="M41" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/53c35893-3698-4819-8994-b5484cf379b3</t>
+        </is>
+      </c>
       <c r="N41" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -5609,7 +5693,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M42" s="33" t="n"/>
+      <c r="M42" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/53c35893-3698-4819-8994-b5484cf379b3</t>
+        </is>
+      </c>
       <c r="N42" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -5962,7 +6050,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M45" s="33" t="n"/>
+      <c r="M45" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/e9066206-5489-4a49-8192-927722af79ad</t>
+        </is>
+      </c>
       <c r="N45" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -6069,7 +6161,11 @@
       </c>
       <c r="K46" s="33" t="n"/>
       <c r="L46" s="33" t="n"/>
-      <c r="M46" s="33" t="n"/>
+      <c r="M46" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/8ef02d68-0b80-4c12-81ee-3dd678d2915b</t>
+        </is>
+      </c>
       <c r="N46" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -6184,7 +6280,11 @@
           <t>1440</t>
         </is>
       </c>
-      <c r="M47" s="33" t="n"/>
+      <c r="M47" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/ec23da1b-e5fa-4f01-bd2c-3233fece2175</t>
+        </is>
+      </c>
       <c r="N47" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -6418,7 +6518,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M49" s="33" t="n"/>
+      <c r="M49" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/47e8f15f-6a0b-4ec5-be7d-8965ce014081</t>
+        </is>
+      </c>
       <c r="N49" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -6533,7 +6637,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M50" s="33" t="n"/>
+      <c r="M50" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/065d2e72-48d3-4791-9a60-ad15a99b9c57</t>
+        </is>
+      </c>
       <c r="N50" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -6648,7 +6756,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M51" s="33" t="n"/>
+      <c r="M51" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/37eceabd-b33f-4757-a4b9-5c51dee1710d</t>
+        </is>
+      </c>
       <c r="N51" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -6763,7 +6875,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M52" s="33" t="n"/>
+      <c r="M52" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/0930efae-d130-40c6-95bf-8e4966913dc8</t>
+        </is>
+      </c>
       <c r="N52" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -6878,7 +6994,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M53" s="33" t="n"/>
+      <c r="M53" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/0798a5d1-6713-4c82-8ec9-c40ac2548279</t>
+        </is>
+      </c>
       <c r="N53" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -7111,7 +7231,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M55" s="33" t="n"/>
+      <c r="M55" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/102d2161-b570-42cd-b646-1c44e47d23c5</t>
+        </is>
+      </c>
       <c r="N55" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -7226,7 +7350,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M56" s="33" t="n"/>
+      <c r="M56" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/b685192a-e033-421e-9074-8fe7cb176046</t>
+        </is>
+      </c>
       <c r="N56" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -7587,7 +7715,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M59" s="33" t="n"/>
+      <c r="M59" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/b167bcef-715e-4136-a743-2fae79a086d3</t>
+        </is>
+      </c>
       <c r="N59" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -7702,7 +7834,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M60" s="33" t="n"/>
+      <c r="M60" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/cf82552d-9740-4f5c-8df1-844cc9486547</t>
+        </is>
+      </c>
       <c r="N60" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -7940,7 +8076,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M62" s="33" t="n"/>
+      <c r="M62" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/ac346633-b838-5e28-b494-0581f963e68d</t>
+        </is>
+      </c>
       <c r="N62" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -8170,7 +8310,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M64" s="33" t="n"/>
+      <c r="M64" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/4bf60736-bc87-4e3d-8d34-ea8bcc46f551</t>
+        </is>
+      </c>
       <c r="N64" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -8408,7 +8552,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M66" s="33" t="n"/>
+      <c r="M66" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/d585421f-a3a1-45bc-bd94-188f65865b9c</t>
+        </is>
+      </c>
       <c r="N66" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -8523,7 +8671,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M67" s="33" t="n"/>
+      <c r="M67" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/2c48066b-6b23-43cc-950f-ec6e89d4d838</t>
+        </is>
+      </c>
       <c r="N67" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -8884,7 +9036,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M70" s="33" t="n"/>
+      <c r="M70" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/ff002d3b-b2e9-45f0-b34e-0130ffbbcf3c</t>
+        </is>
+      </c>
       <c r="N70" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -9245,7 +9401,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M73" s="33" t="n"/>
+      <c r="M73" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/9e0e1511-492a-4ea4-a88a-50564b29805b</t>
+        </is>
+      </c>
       <c r="N73" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -9360,7 +9520,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M74" s="33" t="n"/>
+      <c r="M74" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/f51d7ccf-0bee-430d-98a3-8334adbe39fc</t>
+        </is>
+      </c>
       <c r="N74" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -9475,7 +9639,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M75" s="33" t="n"/>
+      <c r="M75" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/a514c9f2-0d4d-4ce2-809b-de4c29e74709</t>
+        </is>
+      </c>
       <c r="N75" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -9590,7 +9758,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M76" s="33" t="n"/>
+      <c r="M76" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/c33b5236-001e-49b5-aa3d-810c0214f9ce</t>
+        </is>
+      </c>
       <c r="N76" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -9828,7 +10000,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M78" s="33" t="n"/>
+      <c r="M78" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/0da5307e-df93-4bc2-b5bc-6cda3cb55e8c</t>
+        </is>
+      </c>
       <c r="N78" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
@@ -10066,7 +10242,11 @@
           <t>-</t>
         </is>
       </c>
-      <c r="M80" s="33" t="n"/>
+      <c r="M80" s="33" t="inlineStr">
+        <is>
+          <t>https://glossary.ecoinvent.org/ids/2c9486c9-1fc4-4535-a296-cd8f3bc0e1cd</t>
+        </is>
+      </c>
       <c r="N80" s="31" t="inlineStr">
         <is>
           <t>ecoinventMapping</t>
